--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2022\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E1A00A-BCEB-4F57-8EA2-DE1351D62DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701ED20F-9546-49F1-B430-801D5DDDCDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6093DCE7-E2EC-419B-BBBC-DCC26767A7E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6093DCE7-E2EC-419B-BBBC-DCC26767A7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -1403,7 +1403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1562,6 +1562,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1854,7 +1863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2092,6 +2101,61 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2146,76 +2210,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2278,7 +2288,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2457,7 +2467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="514201208"/>
@@ -2516,7 +2526,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="514204160"/>
@@ -2564,7 +2574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2648,7 +2658,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3353,7 +3363,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3390,7 +3400,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3466,7 +3476,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3585,7 +3595,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="uk-UA"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -3719,7 +3729,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3763,7 +3773,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3839,7 +3849,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4065,7 +4075,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4118,7 +4128,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4202,7 +4212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4396,7 +4406,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="uk-UA"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4538,7 +4548,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4591,7 +4601,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9084,8 +9094,8 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9100,16 +9110,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="138" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -9253,10 +9263,10 @@
         <v>160</v>
       </c>
       <c r="F13" s="51"/>
-      <c r="G13" s="116" t="s">
+      <c r="G13" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="117"/>
+      <c r="H13" s="140"/>
       <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9432,7 +9442,7 @@
       <c r="E23" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="121" t="s">
+      <c r="F23" s="144" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="84" t="s">
@@ -9451,7 +9461,7 @@
       <c r="E24" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="122"/>
+      <c r="F24" s="145"/>
       <c r="G24" s="78" t="s">
         <v>191</v>
       </c>
@@ -9470,7 +9480,7 @@
       <c r="E25" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="122"/>
+      <c r="F25" s="145"/>
       <c r="G25" s="78"/>
       <c r="H25" s="89"/>
       <c r="I25" s="27"/>
@@ -9487,7 +9497,7 @@
       <c r="E26" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="122"/>
+      <c r="F26" s="145"/>
       <c r="G26" s="78">
         <v>22</v>
       </c>
@@ -9506,7 +9516,7 @@
       <c r="E27" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="123"/>
+      <c r="F27" s="146"/>
       <c r="G27" s="78" t="s">
         <v>136</v>
       </c>
@@ -9516,7 +9526,7 @@
       <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="159" t="s">
         <v>129</v>
       </c>
       <c r="B28" s="8"/>
@@ -9546,7 +9556,7 @@
       <c r="E29" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="118" t="s">
+      <c r="F29" s="141" t="s">
         <v>113</v>
       </c>
       <c r="G29" s="71" t="s">
@@ -9567,7 +9577,7 @@
       <c r="E30" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="119"/>
+      <c r="F30" s="142"/>
       <c r="G30" s="71" t="s">
         <v>137</v>
       </c>
@@ -9588,7 +9598,7 @@
       <c r="E31" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="119"/>
+      <c r="F31" s="142"/>
       <c r="G31" s="71">
         <v>324116</v>
       </c>
@@ -9607,7 +9617,7 @@
       <c r="E32" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="F32" s="119"/>
+      <c r="F32" s="142"/>
       <c r="G32" s="71"/>
       <c r="H32" s="93"/>
       <c r="I32" s="27"/>
@@ -9624,7 +9634,7 @@
       <c r="E33" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="119"/>
+      <c r="F33" s="142"/>
       <c r="G33" s="71">
         <v>320505</v>
       </c>
@@ -9645,7 +9655,7 @@
       <c r="E34" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="119"/>
+      <c r="F34" s="142"/>
       <c r="G34" s="71" t="s">
         <v>135</v>
       </c>
@@ -9664,7 +9674,7 @@
       <c r="E35" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="119"/>
+      <c r="F35" s="142"/>
       <c r="G35" s="71" t="s">
         <v>139</v>
       </c>
@@ -9685,7 +9695,7 @@
       <c r="E36" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="119"/>
+      <c r="F36" s="142"/>
       <c r="G36" s="71"/>
       <c r="H36" s="94">
         <v>352609</v>
@@ -9704,7 +9714,7 @@
       <c r="E37" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="F37" s="119"/>
+      <c r="F37" s="142"/>
       <c r="G37" s="71"/>
       <c r="H37" s="94" t="s">
         <v>188</v>
@@ -9723,7 +9733,7 @@
       <c r="E38" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="F38" s="119"/>
+      <c r="F38" s="142"/>
       <c r="G38" s="71">
         <v>68.05</v>
       </c>
@@ -9756,7 +9766,7 @@
       <c r="E39" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="F39" s="119"/>
+      <c r="F39" s="142"/>
       <c r="G39" s="71">
         <v>22.95</v>
       </c>
@@ -9786,7 +9796,7 @@
       <c r="E40" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="F40" s="119"/>
+      <c r="F40" s="142"/>
       <c r="G40" s="71">
         <v>23.3</v>
       </c>
@@ -9819,7 +9829,7 @@
       <c r="E41" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="F41" s="119"/>
+      <c r="F41" s="142"/>
       <c r="G41" s="71"/>
       <c r="H41" s="93"/>
       <c r="I41" s="107" t="s">
@@ -9845,7 +9855,7 @@
       <c r="E42" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="119"/>
+      <c r="F42" s="142"/>
       <c r="G42" s="71">
         <v>386</v>
       </c>
@@ -9863,7 +9873,7 @@
       <c r="E43" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="119"/>
+      <c r="F43" s="142"/>
       <c r="G43" s="71" t="s">
         <v>140</v>
       </c>
@@ -9881,7 +9891,7 @@
       <c r="E44" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="F44" s="119"/>
+      <c r="F44" s="142"/>
       <c r="G44" s="71">
         <v>8204255</v>
       </c>
@@ -9900,7 +9910,7 @@
       <c r="E45" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="F45" s="119"/>
+      <c r="F45" s="142"/>
       <c r="G45" s="71" t="s">
         <v>190</v>
       </c>
@@ -9916,7 +9926,7 @@
       <c r="E46" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="F46" s="120"/>
+      <c r="F46" s="143"/>
       <c r="G46" s="71" t="s">
         <v>252</v>
       </c>
@@ -9934,7 +9944,7 @@
       <c r="E47" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="113" t="s">
+      <c r="F47" s="136" t="s">
         <v>124</v>
       </c>
       <c r="G47" s="58">
@@ -9951,7 +9961,7 @@
       <c r="E48" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="113"/>
+      <c r="F48" s="136"/>
       <c r="G48" s="58">
         <v>324116</v>
       </c>
@@ -9966,7 +9976,7 @@
       <c r="E49" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="F49" s="113"/>
+      <c r="F49" s="136"/>
       <c r="G49" s="58" t="s">
         <v>141</v>
       </c>
@@ -9981,7 +9991,7 @@
       <c r="E50" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="F50" s="113"/>
+      <c r="F50" s="136"/>
       <c r="G50" s="58">
         <v>320505</v>
       </c>
@@ -9996,7 +10006,7 @@
       <c r="E51" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="113"/>
+      <c r="F51" s="136"/>
       <c r="G51" s="58" t="s">
         <v>142</v>
       </c>
@@ -10011,7 +10021,7 @@
       <c r="E52" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="F52" s="113"/>
+      <c r="F52" s="136"/>
       <c r="G52" s="58">
         <v>815</v>
       </c>
@@ -10026,7 +10036,7 @@
       <c r="E53" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="F53" s="113"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="58" t="s">
         <v>226</v>
       </c>
@@ -10041,7 +10051,7 @@
       <c r="E54" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="F54" s="113"/>
+      <c r="F54" s="136"/>
       <c r="G54" s="58">
         <v>68.06</v>
       </c>
@@ -10061,7 +10071,7 @@
       <c r="E55" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F55" s="113"/>
+      <c r="F55" s="136"/>
       <c r="G55" s="58"/>
       <c r="H55" s="96"/>
       <c r="I55" s="68"/>
@@ -10075,7 +10085,7 @@
       <c r="E56" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="F56" s="114" t="s">
+      <c r="F56" s="137" t="s">
         <v>127</v>
       </c>
       <c r="G56" s="61" t="s">
@@ -10095,7 +10105,7 @@
       <c r="E57" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="F57" s="114"/>
+      <c r="F57" s="137"/>
       <c r="G57" s="61"/>
       <c r="H57" s="97"/>
       <c r="I57" s="27"/>
@@ -10109,7 +10119,7 @@
       <c r="E58" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="114"/>
+      <c r="F58" s="137"/>
       <c r="G58" s="61"/>
       <c r="H58" s="97"/>
       <c r="I58" s="27"/>
@@ -10123,7 +10133,7 @@
       <c r="E59" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="F59" s="114"/>
+      <c r="F59" s="137"/>
       <c r="G59" s="61"/>
       <c r="H59" s="97"/>
       <c r="I59" s="27"/>
@@ -10137,7 +10147,7 @@
       <c r="E60" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="114"/>
+      <c r="F60" s="137"/>
       <c r="G60" s="61"/>
       <c r="H60" s="97"/>
       <c r="I60" s="27"/>
@@ -10151,7 +10161,7 @@
       <c r="E61" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="F61" s="114"/>
+      <c r="F61" s="137"/>
       <c r="G61" s="62"/>
       <c r="H61" s="98"/>
       <c r="I61" s="27"/>
@@ -10165,7 +10175,7 @@
       <c r="E62" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="114"/>
+      <c r="F62" s="137"/>
       <c r="G62" s="63" t="s">
         <v>144</v>
       </c>
@@ -10181,7 +10191,7 @@
       <c r="E63" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="F63" s="114"/>
+      <c r="F63" s="137"/>
       <c r="G63" s="63"/>
       <c r="H63" s="98"/>
       <c r="I63" s="27"/>
@@ -10195,7 +10205,7 @@
       <c r="E64" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="F64" s="114"/>
+      <c r="F64" s="137"/>
       <c r="G64" s="63"/>
       <c r="H64" s="97"/>
       <c r="I64" s="27"/>
@@ -10421,19 +10431,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
@@ -10591,8 +10601,8 @@
       <c r="G13" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
       <c r="J13" s="67"/>
       <c r="K13" s="27"/>
     </row>
@@ -10915,28 +10925,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -11233,10 +11243,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="125"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="3">
         <f>C10+C14+C19+C24</f>
         <v>15</v>
@@ -11392,20 +11402,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -11602,31 +11612,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -11691,19 +11701,19 @@
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="133">
+      <c r="C9" s="115">
         <v>475</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D9" s="115">
         <v>30015</v>
       </c>
-      <c r="E9" s="134"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -11736,21 +11746,21 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="133">
+      <c r="C12" s="115">
         <f>SUM(C10:C11)</f>
         <v>3</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="115">
         <f>SUM(D10:D11)</f>
         <v>130</v>
       </c>
-      <c r="E12" s="134"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -11783,21 +11793,21 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="133">
+      <c r="C15" s="115">
         <f>SUM(C13:C14)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="115">
         <f>SUM(D13:D14)</f>
         <v>130</v>
       </c>
-      <c r="E15" s="134"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
@@ -11909,185 +11919,185 @@
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="137">
+      <c r="C23" s="119">
         <f>C6+C10+C13</f>
         <v>131</v>
       </c>
-      <c r="D23" s="137">
+      <c r="D23" s="119">
         <f>D6+D10+D13</f>
         <v>8787</v>
       </c>
-      <c r="E23" s="138"/>
+      <c r="E23" s="120"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="135" t="s">
+      <c r="A24" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="137">
+      <c r="C24" s="119">
         <f>C7+C11+C14</f>
         <v>92</v>
       </c>
-      <c r="D24" s="137">
+      <c r="D24" s="119">
         <f>D7+D11+D14</f>
         <v>6138</v>
       </c>
-      <c r="E24" s="138"/>
+      <c r="E24" s="120"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="137">
+      <c r="C25" s="119">
         <f>C8+C21</f>
         <v>259</v>
       </c>
-      <c r="D25" s="137">
+      <c r="D25" s="119">
         <f>D8+D21</f>
         <v>15480</v>
       </c>
-      <c r="E25" s="138"/>
+      <c r="E25" s="120"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="135" t="s">
+      <c r="A26" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="137">
+      <c r="C26" s="119">
         <f>C20</f>
         <v>1</v>
       </c>
-      <c r="D26" s="137">
+      <c r="D26" s="119">
         <f>D20</f>
         <v>65</v>
       </c>
-      <c r="E26" s="138"/>
+      <c r="E26" s="120"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="137">
+      <c r="C27" s="119">
         <f>C18</f>
         <v>4</v>
       </c>
-      <c r="D27" s="137">
+      <c r="D27" s="119">
         <f>D18</f>
         <v>276</v>
       </c>
-      <c r="E27" s="138"/>
+      <c r="E27" s="120"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="135" t="s">
+      <c r="A28" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="137">
+      <c r="C28" s="119">
         <f>C19</f>
         <v>1</v>
       </c>
-      <c r="D28" s="137">
+      <c r="D28" s="119">
         <f>D19</f>
         <v>65</v>
       </c>
-      <c r="E28" s="138"/>
+      <c r="E28" s="120"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="135" t="s">
+      <c r="A29" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="137">
+      <c r="C29" s="119">
         <f>C16</f>
         <v>1</v>
       </c>
-      <c r="D29" s="137">
+      <c r="D29" s="119">
         <f>D16</f>
         <v>65</v>
       </c>
-      <c r="E29" s="138"/>
+      <c r="E29" s="120"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="136">
+      <c r="C30" s="118">
         <f>C9+C12+C15+C17+C22</f>
         <v>489</v>
       </c>
-      <c r="D30" s="136">
+      <c r="D30" s="118">
         <f>D9+D12+D15+D17+D22</f>
         <v>30876</v>
       </c>
-      <c r="E30" s="138"/>
+      <c r="E30" s="120"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="141" t="s">
+      <c r="A31" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="142">
+      <c r="C31" s="124">
         <v>2</v>
       </c>
-      <c r="D31" s="142">
+      <c r="D31" s="124">
         <v>100</v>
       </c>
-      <c r="E31" s="142"/>
+      <c r="E31" s="124"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="141" t="s">
+      <c r="A32" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="142">
+      <c r="C32" s="124">
         <v>670</v>
       </c>
-      <c r="D32" s="142">
+      <c r="D32" s="124">
         <v>44811</v>
       </c>
-      <c r="E32" s="142"/>
+      <c r="E32" s="124"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="143" t="s">
+      <c r="A33" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="144" t="s">
+      <c r="B33" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="144">
+      <c r="C33" s="126">
         <v>670</v>
       </c>
-      <c r="D33" s="144">
+      <c r="D33" s="126">
         <v>44811</v>
       </c>
-      <c r="E33" s="144"/>
+      <c r="E33" s="126"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
@@ -12233,10 +12243,10 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="128" t="s">
+      <c r="A43" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="129"/>
+      <c r="B43" s="152"/>
       <c r="C43" s="13">
         <f>C30+C33+C38+C40+C42</f>
         <v>4435</v>
@@ -12413,10 +12423,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="128" t="s">
+      <c r="A68" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="129"/>
+      <c r="B68" s="152"/>
       <c r="C68" s="38">
         <v>4435</v>
       </c>
@@ -12459,30 +12469,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12507,239 +12517,239 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="151">
+      <c r="C6" s="131">
         <v>49</v>
       </c>
-      <c r="D6" s="151">
+      <c r="D6" s="131">
         <v>3034</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="151">
+      <c r="C7" s="131">
         <v>148</v>
       </c>
-      <c r="D7" s="151">
+      <c r="D7" s="131">
         <v>8372</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="151">
+      <c r="C8" s="131">
         <v>122</v>
       </c>
-      <c r="D8" s="151">
+      <c r="D8" s="131">
         <v>7340</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="131">
         <v>20</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="131">
         <v>1350</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="151">
+      <c r="C10" s="131">
         <v>1</v>
       </c>
-      <c r="D10" s="151">
+      <c r="D10" s="131">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="150" t="s">
+      <c r="A11" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="151">
+      <c r="C11" s="131">
         <v>1</v>
       </c>
-      <c r="D11" s="151">
+      <c r="D11" s="131">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="152"/>
-      <c r="C12" s="153">
+      <c r="B12" s="154"/>
+      <c r="C12" s="132">
         <f>SUM(C6:C11)</f>
         <v>341</v>
       </c>
-      <c r="D12" s="153">
+      <c r="D12" s="132">
         <f>SUM(D6:D11)</f>
         <v>20224</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="146">
+      <c r="C13" s="128">
         <v>1</v>
       </c>
-      <c r="D13" s="146">
+      <c r="D13" s="128">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="146">
+      <c r="C14" s="128">
         <v>1</v>
       </c>
-      <c r="D14" s="146">
+      <c r="D14" s="128">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="146">
+      <c r="C15" s="128">
         <v>1</v>
       </c>
-      <c r="D15" s="146">
+      <c r="D15" s="128">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="146">
+      <c r="C16" s="128">
         <v>1</v>
       </c>
-      <c r="D16" s="146">
+      <c r="D16" s="128">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="146">
+      <c r="C17" s="128">
         <v>1</v>
       </c>
-      <c r="D17" s="146">
+      <c r="D17" s="128">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="147" t="s">
+      <c r="A18" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="148"/>
-      <c r="C18" s="149">
+      <c r="B18" s="156"/>
+      <c r="C18" s="129">
         <f>SUM(C13:C17)</f>
         <v>5</v>
       </c>
-      <c r="D18" s="149">
+      <c r="D18" s="129">
         <f>SUM(D13:D17)</f>
         <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="154">
+      <c r="C19" s="133">
         <v>1</v>
       </c>
-      <c r="D19" s="154">
+      <c r="D19" s="133">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="154">
+      <c r="C20" s="133">
         <v>1</v>
       </c>
-      <c r="D20" s="154">
+      <c r="D20" s="133">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="154">
+      <c r="C21" s="133">
         <v>1</v>
       </c>
-      <c r="D21" s="154">
+      <c r="D21" s="133">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157">
+      <c r="B22" s="158"/>
+      <c r="C22" s="134">
         <f>SUM(C19:C21)</f>
         <v>3</v>
       </c>
-      <c r="D22" s="157">
+      <c r="D22" s="134">
         <f>SUM(D19:D21)</f>
         <v>180</v>
       </c>
@@ -12759,10 +12769,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="129"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="3">
         <f>10</f>
         <v>10</v>
@@ -12814,10 +12824,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="129"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="3">
         <f>SUM(C25:C27)</f>
         <v>670</v>
@@ -12842,10 +12852,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="129"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="3">
         <f>SUM(C29)</f>
         <v>3190</v>
@@ -12870,10 +12880,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="128" t="s">
+      <c r="A32" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="129"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="3">
         <f>SUM(C31)</f>
         <v>7</v>
@@ -12912,10 +12922,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="128" t="s">
+      <c r="A35" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="129"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="3">
         <f>SUM(C33:C34)</f>
         <v>2</v>
@@ -12926,10 +12936,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="129"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="1">
         <f>C12+C18+C22+C28+C30+C32+C35</f>
         <v>4218</v>
@@ -13085,10 +13095,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="129"/>
+      <c r="B62" s="152"/>
       <c r="C62">
         <v>100</v>
       </c>
@@ -13098,11 +13108,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A35:B35"/>
@@ -13111,6 +13116,11 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B56D658-AD0A-4C51-8E3E-73177749AF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECA82CE-B2FA-48F3-ACB0-A5AAF0792629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -38,13 +38,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shuba, Irina V</author>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="1" shapeId="0">
+    <comment ref="L16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -124,12 +124,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -150,12 +150,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -304,12 +304,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -340,12 +340,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gubarenko, Lyudmila V</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -412,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1487,7 +1487,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2293,10 +2293,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6264,14 +6264,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7582,7 +7582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8074,7 +8074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8569,7 +8569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -8795,7 +8795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -9670,7 +9670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -10348,12 +10348,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
@@ -10361,6 +10355,12 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -10370,7 +10370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -10478,44 +10478,44 @@
       <c r="Q4" s="149"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="150" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150" t="s">
+      <c r="C6" s="151"/>
+      <c r="D6" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150" t="s">
+      <c r="E6" s="151"/>
+      <c r="F6" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150" t="s">
+      <c r="G6" s="151"/>
+      <c r="H6" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150" t="s">
+      <c r="I6" s="151"/>
+      <c r="J6" s="151" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150" t="s">
+      <c r="K6" s="151"/>
+      <c r="L6" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150" t="s">
+      <c r="M6" s="151"/>
+      <c r="N6" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150" t="s">
+      <c r="O6" s="151"/>
+      <c r="P6" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="150"/>
+      <c r="Q6" s="151"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="151"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="2" t="s">
         <v>287</v>
       </c>
@@ -10866,7 +10866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFD5FFFF"/>
   </sheetPr>

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECA82CE-B2FA-48F3-ACB0-A5AAF0792629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A22FC-66CF-4B8E-86C4-39D47F28D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1945,7 +1945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2169,9 +2169,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2297,6 +2294,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6270,8 +6273,8 @@
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6286,16 +6289,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
@@ -6371,7 +6374,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="105" t="s">
         <v>266</v>
       </c>
       <c r="G8" s="8"/>
@@ -6397,13 +6400,13 @@
       <c r="C10" s="28"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="H10" s="108"/>
+      <c r="H10" s="107"/>
       <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6439,10 +6442,10 @@
         <v>159</v>
       </c>
       <c r="F13" s="53"/>
-      <c r="G13" s="135" t="s">
+      <c r="G13" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="136"/>
+      <c r="H13" s="135"/>
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6479,7 +6482,7 @@
       <c r="H15" s="91">
         <v>2</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="108" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6618,7 +6621,7 @@
       <c r="E23" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="86" t="s">
@@ -6637,7 +6640,7 @@
       <c r="E24" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="141"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="80" t="s">
         <v>190</v>
       </c>
@@ -6656,7 +6659,7 @@
       <c r="E25" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="141"/>
+      <c r="F25" s="140"/>
       <c r="G25" s="80"/>
       <c r="H25" s="91"/>
       <c r="I25" s="29"/>
@@ -6673,7 +6676,7 @@
       <c r="E26" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="141"/>
+      <c r="F26" s="140"/>
       <c r="G26" s="80">
         <v>22</v>
       </c>
@@ -6692,7 +6695,7 @@
       <c r="E27" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="142"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="80" t="s">
         <v>135</v>
       </c>
@@ -6730,7 +6733,7 @@
       <c r="E29" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="137" t="s">
+      <c r="F29" s="136" t="s">
         <v>113</v>
       </c>
       <c r="G29" s="73" t="s">
@@ -6751,7 +6754,7 @@
       <c r="E30" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="138"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="73" t="s">
         <v>136</v>
       </c>
@@ -6772,7 +6775,7 @@
       <c r="E31" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="138"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="73">
         <v>324116</v>
       </c>
@@ -6791,7 +6794,7 @@
       <c r="E32" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="F32" s="138"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="73"/>
       <c r="H32" s="95"/>
       <c r="I32" s="29"/>
@@ -6808,7 +6811,7 @@
       <c r="E33" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="138"/>
+      <c r="F33" s="137"/>
       <c r="G33" s="73">
         <v>320505</v>
       </c>
@@ -6829,7 +6832,7 @@
       <c r="E34" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="138"/>
+      <c r="F34" s="137"/>
       <c r="G34" s="73" t="s">
         <v>134</v>
       </c>
@@ -6848,7 +6851,7 @@
       <c r="E35" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="138"/>
+      <c r="F35" s="137"/>
       <c r="G35" s="73" t="s">
         <v>138</v>
       </c>
@@ -6869,7 +6872,7 @@
       <c r="E36" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="138"/>
+      <c r="F36" s="137"/>
       <c r="G36" s="73"/>
       <c r="H36" s="96">
         <v>352609</v>
@@ -6888,7 +6891,7 @@
       <c r="E37" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="138"/>
+      <c r="F37" s="137"/>
       <c r="G37" s="73"/>
       <c r="H37" s="96" t="s">
         <v>187</v>
@@ -6907,23 +6910,23 @@
       <c r="E38" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="138"/>
+      <c r="F38" s="137"/>
       <c r="G38" s="73">
         <v>68.05</v>
       </c>
       <c r="H38" s="95">
         <v>65.849999999999994</v>
       </c>
-      <c r="I38" s="109" t="s">
+      <c r="I38" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="J38" s="109" t="s">
+      <c r="J38" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
       <c r="O38" s="33" t="s">
         <v>224</v>
       </c>
@@ -6940,23 +6943,23 @@
       <c r="E39" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="138"/>
+      <c r="F39" s="137"/>
       <c r="G39" s="73">
         <v>22.95</v>
       </c>
       <c r="H39" s="95">
         <v>23</v>
       </c>
-      <c r="I39" s="109" t="s">
+      <c r="I39" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="J39" s="109" t="s">
+      <c r="J39" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
     </row>
     <row r="40" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
@@ -6970,23 +6973,23 @@
       <c r="E40" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="138"/>
+      <c r="F40" s="137"/>
       <c r="G40" s="73">
         <v>23.3</v>
       </c>
       <c r="H40" s="95">
         <v>23.8</v>
       </c>
-      <c r="I40" s="109" t="s">
+      <c r="I40" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="J40" s="109" t="s">
+      <c r="J40" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
       <c r="O40" s="33" t="s">
         <v>224</v>
       </c>
@@ -7003,19 +7006,19 @@
       <c r="E41" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="138"/>
+      <c r="F41" s="137"/>
       <c r="G41" s="73"/>
       <c r="H41" s="95"/>
-      <c r="I41" s="109" t="s">
+      <c r="I41" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="J41" s="109" t="s">
+      <c r="J41" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="109"/>
     </row>
     <row r="42" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
@@ -7029,7 +7032,7 @@
       <c r="E42" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="138"/>
+      <c r="F42" s="137"/>
       <c r="G42" s="73">
         <v>386</v>
       </c>
@@ -7047,7 +7050,7 @@
       <c r="E43" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="138"/>
+      <c r="F43" s="137"/>
       <c r="G43" s="73" t="s">
         <v>139</v>
       </c>
@@ -7065,7 +7068,7 @@
       <c r="E44" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="138"/>
+      <c r="F44" s="137"/>
       <c r="G44" s="73">
         <v>8204255</v>
       </c>
@@ -7084,7 +7087,7 @@
       <c r="E45" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="138"/>
+      <c r="F45" s="137"/>
       <c r="G45" s="73" t="s">
         <v>189</v>
       </c>
@@ -7100,7 +7103,7 @@
       <c r="E46" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="139"/>
+      <c r="F46" s="138"/>
       <c r="G46" s="73" t="s">
         <v>251</v>
       </c>
@@ -7118,7 +7121,7 @@
       <c r="E47" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="132" t="s">
+      <c r="F47" s="131" t="s">
         <v>124</v>
       </c>
       <c r="G47" s="60">
@@ -7135,7 +7138,7 @@
       <c r="E48" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="F48" s="132"/>
+      <c r="F48" s="131"/>
       <c r="G48" s="60">
         <v>324116</v>
       </c>
@@ -7150,7 +7153,7 @@
       <c r="E49" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="132"/>
+      <c r="F49" s="131"/>
       <c r="G49" s="60" t="s">
         <v>140</v>
       </c>
@@ -7165,7 +7168,7 @@
       <c r="E50" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="132"/>
+      <c r="F50" s="131"/>
       <c r="G50" s="60">
         <v>320505</v>
       </c>
@@ -7180,7 +7183,7 @@
       <c r="E51" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="F51" s="132"/>
+      <c r="F51" s="131"/>
       <c r="G51" s="60" t="s">
         <v>141</v>
       </c>
@@ -7195,7 +7198,7 @@
       <c r="E52" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="F52" s="132"/>
+      <c r="F52" s="131"/>
       <c r="G52" s="60">
         <v>815</v>
       </c>
@@ -7210,7 +7213,7 @@
       <c r="E53" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="132"/>
+      <c r="F53" s="131"/>
       <c r="G53" s="60" t="s">
         <v>225</v>
       </c>
@@ -7225,7 +7228,7 @@
       <c r="E54" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="132"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="60">
         <v>68.06</v>
       </c>
@@ -7245,7 +7248,7 @@
       <c r="E55" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="F55" s="132"/>
+      <c r="F55" s="131"/>
       <c r="G55" s="60"/>
       <c r="H55" s="98"/>
       <c r="I55" s="70"/>
@@ -7259,7 +7262,7 @@
       <c r="E56" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="133" t="s">
+      <c r="F56" s="132" t="s">
         <v>127</v>
       </c>
       <c r="G56" s="63" t="s">
@@ -7279,7 +7282,7 @@
       <c r="E57" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="133"/>
+      <c r="F57" s="132"/>
       <c r="G57" s="63"/>
       <c r="H57" s="99"/>
       <c r="I57" s="29"/>
@@ -7293,7 +7296,7 @@
       <c r="E58" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="133"/>
+      <c r="F58" s="132"/>
       <c r="G58" s="63"/>
       <c r="H58" s="99"/>
       <c r="I58" s="29"/>
@@ -7307,7 +7310,7 @@
       <c r="E59" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="133"/>
+      <c r="F59" s="132"/>
       <c r="G59" s="63"/>
       <c r="H59" s="99"/>
       <c r="I59" s="29"/>
@@ -7321,7 +7324,7 @@
       <c r="E60" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="F60" s="133"/>
+      <c r="F60" s="132"/>
       <c r="G60" s="63"/>
       <c r="H60" s="99"/>
       <c r="I60" s="29"/>
@@ -7335,7 +7338,7 @@
       <c r="E61" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="133"/>
+      <c r="F61" s="132"/>
       <c r="G61" s="64"/>
       <c r="H61" s="100"/>
       <c r="I61" s="29"/>
@@ -7349,7 +7352,7 @@
       <c r="E62" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="133"/>
+      <c r="F62" s="132"/>
       <c r="G62" s="65" t="s">
         <v>143</v>
       </c>
@@ -7365,7 +7368,7 @@
       <c r="E63" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="F63" s="133"/>
+      <c r="F63" s="132"/>
       <c r="G63" s="65"/>
       <c r="H63" s="100"/>
       <c r="I63" s="29"/>
@@ -7379,7 +7382,7 @@
       <c r="E64" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="133"/>
+      <c r="F64" s="132"/>
       <c r="G64" s="65"/>
       <c r="H64" s="99"/>
       <c r="I64" s="29"/>
@@ -7399,10 +7402,10 @@
       <c r="F65" s="68"/>
       <c r="G65" s="68"/>
       <c r="H65" s="101"/>
-      <c r="I65" s="109" t="s">
+      <c r="I65" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="J65" s="111" t="s">
+      <c r="J65" s="110" t="s">
         <v>271</v>
       </c>
       <c r="M65" s="33"/>
@@ -7418,10 +7421,10 @@
       <c r="F66" s="68"/>
       <c r="G66" s="68"/>
       <c r="H66" s="101"/>
-      <c r="I66" s="109" t="s">
+      <c r="I66" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="J66" s="111" t="s">
+      <c r="J66" s="110" t="s">
         <v>272</v>
       </c>
       <c r="M66" s="33"/>
@@ -7437,7 +7440,7 @@
       <c r="F67" s="68"/>
       <c r="G67" s="68"/>
       <c r="H67" s="101"/>
-      <c r="I67" s="109" t="s">
+      <c r="I67" s="108" t="s">
         <v>269</v>
       </c>
       <c r="M67" s="33"/>
@@ -7453,7 +7456,7 @@
       <c r="F68" s="68"/>
       <c r="G68" s="68"/>
       <c r="H68" s="101"/>
-      <c r="I68" s="109" t="s">
+      <c r="I68" s="108" t="s">
         <v>269</v>
       </c>
       <c r="M68" s="33"/>
@@ -7463,7 +7466,7 @@
       <c r="B69" s="8"/>
       <c r="C69" s="28"/>
       <c r="D69" s="66"/>
-      <c r="E69" s="67" t="s">
+      <c r="E69" s="151" t="s">
         <v>253</v>
       </c>
       <c r="F69" s="68"/>
@@ -7473,7 +7476,7 @@
       <c r="H69" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="I69" s="112" t="s">
+      <c r="I69" s="111" t="s">
         <v>254</v>
       </c>
       <c r="M69" s="33"/>
@@ -7483,7 +7486,7 @@
       <c r="B70" s="8"/>
       <c r="C70" s="28"/>
       <c r="D70" s="66"/>
-      <c r="E70" s="67" t="s">
+      <c r="E70" s="151" t="s">
         <v>257</v>
       </c>
       <c r="F70" s="68"/>
@@ -7501,7 +7504,7 @@
       <c r="B71" s="8"/>
       <c r="C71" s="28"/>
       <c r="D71" s="66"/>
-      <c r="E71" s="67" t="s">
+      <c r="E71" s="151" t="s">
         <v>261</v>
       </c>
       <c r="F71" s="68"/>
@@ -7515,7 +7518,7 @@
       <c r="B72" s="8"/>
       <c r="C72" s="28"/>
       <c r="D72" s="66"/>
-      <c r="E72" s="67" t="s">
+      <c r="E72" s="151" t="s">
         <v>263</v>
       </c>
       <c r="F72" s="68"/>
@@ -7529,7 +7532,7 @@
       <c r="B73" s="8"/>
       <c r="C73" s="28"/>
       <c r="D73" s="66"/>
-      <c r="E73" s="67" t="s">
+      <c r="E73" s="151" t="s">
         <v>264</v>
       </c>
       <c r="F73" s="68"/>
@@ -7543,7 +7546,7 @@
       <c r="B74" s="8"/>
       <c r="C74" s="28"/>
       <c r="D74" s="66"/>
-      <c r="E74" s="67" t="s">
+      <c r="E74" s="151" t="s">
         <v>265</v>
       </c>
       <c r="F74" s="68"/>
@@ -7557,12 +7560,12 @@
       <c r="B75" s="31"/>
       <c r="C75" s="30"/>
       <c r="D75" s="102"/>
-      <c r="E75" s="103" t="s">
+      <c r="E75" s="152" t="s">
         <v>262</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="105"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="104"/>
       <c r="I75" s="32"/>
     </row>
   </sheetData>
@@ -7600,19 +7603,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -8094,28 +8097,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -8412,10 +8415,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="3">
         <f>C10+C14+C19+C24</f>
         <v>15</v>
@@ -8429,10 +8432,10 @@
       <c r="A30" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -8588,20 +8591,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -8632,11 +8635,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113">
         <v>120</v>
       </c>
     </row>
@@ -8652,11 +8655,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114">
+      <c r="B8" s="112"/>
+      <c r="C8" s="113">
         <v>10</v>
       </c>
     </row>
@@ -8749,11 +8752,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="114">
+      <c r="B17" s="112"/>
+      <c r="C17" s="113">
         <f>SUM(C9:C16)</f>
         <v>24</v>
       </c>
@@ -8772,10 +8775,10 @@
       <c r="A22" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8815,31 +8818,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -9443,10 +9446,10 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="147" t="s">
+      <c r="A43" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="148"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="14">
         <f>C30+C33+C38+C40+C42</f>
         <v>4435</v>
@@ -9461,13 +9464,13 @@
       <c r="A46" t="s">
         <v>294</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -9643,10 +9646,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="147" t="s">
+      <c r="A68" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="148"/>
+      <c r="B68" s="147"/>
       <c r="C68" s="40">
         <v>4435</v>
       </c>
@@ -9689,30 +9692,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9821,10 +9824,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="144"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="3">
         <f>SUM(C6:C11)</f>
         <v>341</v>
@@ -9905,10 +9908,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="147" t="s">
+      <c r="A18" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="148"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="3">
         <f>SUM(C13:C17)</f>
         <v>5</v>
@@ -9961,10 +9964,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="147" t="s">
+      <c r="A22" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="148"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="3">
         <f>SUM(C19:C21)</f>
         <v>3</v>
@@ -9989,10 +9992,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="148"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="3">
         <f>10</f>
         <v>10</v>
@@ -10044,10 +10047,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="148"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="3">
         <f>SUM(C25:C27)</f>
         <v>670</v>
@@ -10072,10 +10075,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="148"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="3">
         <f>SUM(C29)</f>
         <v>3190</v>
@@ -10100,10 +10103,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="148"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="3">
         <f>SUM(C31)</f>
         <v>7</v>
@@ -10142,10 +10145,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="147" t="s">
+      <c r="A35" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="148"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="3">
         <f>SUM(C33:C34)</f>
         <v>2</v>
@@ -10156,10 +10159,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="147" t="s">
+      <c r="A36" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="148"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="1">
         <f>C12+C18+C22+C28+C30+C32+C35</f>
         <v>4218</v>
@@ -10173,13 +10176,13 @@
       <c r="A40" t="s">
         <v>294</v>
       </c>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -10335,10 +10338,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="147" t="s">
+      <c r="A54" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="148"/>
+      <c r="B54" s="147"/>
       <c r="C54">
         <v>100</v>
       </c>
@@ -10394,128 +10397,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="148" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="148" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="148" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="149" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151" t="s">
+      <c r="E6" s="150"/>
+      <c r="F6" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151" t="s">
+      <c r="G6" s="150"/>
+      <c r="H6" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151" t="s">
+      <c r="I6" s="150"/>
+      <c r="J6" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151" t="s">
+      <c r="K6" s="150"/>
+      <c r="L6" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151" t="s">
+      <c r="M6" s="150"/>
+      <c r="N6" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151" t="s">
+      <c r="O6" s="150"/>
+      <c r="P6" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="151"/>
+      <c r="Q6" s="150"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="2" t="s">
         <v>287</v>
       </c>
@@ -10794,43 +10797,43 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -10886,277 +10889,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="148" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="115">
         <v>1344</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="116" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="123">
+      <c r="B6" s="122">
         <f>B19+E18+H18</f>
         <v>383</v>
       </c>
-      <c r="C6" s="124">
+      <c r="C6" s="123">
         <f>B6*100/B5</f>
         <v>28.49702380952381</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="122" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="123">
+      <c r="B7" s="122">
         <f>B18+H21</f>
         <v>288</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="123">
         <f>B7*100/B5</f>
         <v>21.428571428571427</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="123">
+      <c r="B8" s="122">
         <f>B20+H19</f>
         <v>280</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="123">
         <f>B8*100/B5</f>
         <v>20.833333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="122" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="122">
         <f>B22+H20</f>
         <v>121</v>
       </c>
-      <c r="C9" s="124">
+      <c r="C9" s="123">
         <f>B9*100/B5</f>
         <v>9.0029761904761898</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="122" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="122">
         <f>B21+K18</f>
         <v>115</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="123">
         <f>B10*100/B5</f>
         <v>8.5565476190476186</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="B11" s="123">
+      <c r="B11" s="122">
         <f>B23+N18</f>
         <v>70</v>
       </c>
-      <c r="C11" s="124">
+      <c r="C11" s="123">
         <f>B11*100/B5</f>
         <v>5.208333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="122" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="123">
+      <c r="B12" s="122">
         <f>B24</f>
         <v>56</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C12" s="123">
         <f>B12*100/B5</f>
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="123">
+      <c r="B13" s="122">
         <f>B25</f>
         <v>16</v>
       </c>
-      <c r="C13" s="124">
+      <c r="C13" s="123">
         <f>B13*100/B5</f>
         <v>1.1904761904761905</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="122">
         <f>B26</f>
         <v>12</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="123">
         <f>B14*100/B5</f>
         <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="123">
+      <c r="B15" s="122">
         <f>B27</f>
         <v>3</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="123">
         <f>B15*100/B5</f>
         <v>0.22321428571428573</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="117">
         <v>1083</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="118" t="s">
         <v>302</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="118">
         <v>85</v>
       </c>
-      <c r="F17" s="117" t="s">
+      <c r="F17" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="G17" s="120" t="s">
+      <c r="G17" s="119" t="s">
         <v>291</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="119">
         <v>162</v>
       </c>
-      <c r="I17" s="117" t="s">
+      <c r="I17" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="J17" s="121" t="s">
+      <c r="J17" s="120" t="s">
         <v>292</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="120">
         <v>2</v>
       </c>
-      <c r="L17" s="117" t="s">
+      <c r="L17" s="116" t="s">
         <v>301</v>
       </c>
-      <c r="M17" s="122" t="s">
+      <c r="M17" s="121" t="s">
         <v>303</v>
       </c>
-      <c r="N17" s="122">
+      <c r="N17" s="121">
         <v>12</v>
       </c>
-      <c r="O17" s="117" t="s">
+      <c r="O17" s="116" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="124" t="s">
         <v>305</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="124">
         <v>260</v>
       </c>
-      <c r="C18" s="124">
+      <c r="C18" s="123">
         <f>B18*100/B17</f>
         <v>24.007386888273317</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="125" t="s">
         <v>304</v>
       </c>
-      <c r="E18" s="126">
+      <c r="E18" s="125">
         <v>85</v>
       </c>
-      <c r="F18" s="127">
+      <c r="F18" s="126">
         <v>100</v>
       </c>
       <c r="G18" s="76" t="s">
@@ -11165,268 +11168,268 @@
       <c r="H18" s="76">
         <v>56</v>
       </c>
-      <c r="I18" s="128">
+      <c r="I18" s="127">
         <f>H18*100/H17</f>
         <v>34.567901234567898</v>
       </c>
-      <c r="J18" s="129" t="s">
+      <c r="J18" s="128" t="s">
         <v>306</v>
       </c>
-      <c r="K18" s="129">
+      <c r="K18" s="128">
         <v>2</v>
       </c>
-      <c r="L18" s="127">
+      <c r="L18" s="126">
         <v>100</v>
       </c>
-      <c r="M18" s="130" t="s">
+      <c r="M18" s="129" t="s">
         <v>307</v>
       </c>
-      <c r="N18" s="130">
+      <c r="N18" s="129">
         <v>12</v>
       </c>
-      <c r="O18" s="127">
+      <c r="O18" s="126">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="124" t="s">
         <v>304</v>
       </c>
-      <c r="B19" s="125">
+      <c r="B19" s="124">
         <v>242</v>
       </c>
-      <c r="C19" s="124">
+      <c r="C19" s="123">
         <f>B19*100/B17</f>
         <v>22.345337026777472</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
       <c r="G19" s="76" t="s">
         <v>308</v>
       </c>
       <c r="H19" s="76">
         <v>47</v>
       </c>
-      <c r="I19" s="128">
+      <c r="I19" s="127">
         <f>H19*100/H17</f>
         <v>29.012345679012345</v>
       </c>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="126"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="124" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="125">
+      <c r="B20" s="124">
         <v>233</v>
       </c>
-      <c r="C20" s="124">
+      <c r="C20" s="123">
         <f>B20*100/B17</f>
         <v>21.514312096029549</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
       <c r="G20" s="76" t="s">
         <v>309</v>
       </c>
       <c r="H20" s="76">
         <v>31</v>
       </c>
-      <c r="I20" s="128">
+      <c r="I20" s="127">
         <f>H20*100/H17</f>
         <v>19.135802469135804</v>
       </c>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="126"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="124" t="s">
         <v>306</v>
       </c>
-      <c r="B21" s="125">
+      <c r="B21" s="124">
         <v>113</v>
       </c>
-      <c r="C21" s="124">
+      <c r="C21" s="123">
         <f>B21*100/B17</f>
         <v>10.433979686057249</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
       <c r="G21" s="76" t="s">
         <v>305</v>
       </c>
       <c r="H21" s="76">
         <v>28</v>
       </c>
-      <c r="I21" s="128">
+      <c r="I21" s="127">
         <f>H21*100/H17</f>
         <v>17.283950617283949</v>
       </c>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="126"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="124" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="125">
+      <c r="B22" s="124">
         <v>90</v>
       </c>
-      <c r="C22" s="124">
+      <c r="C22" s="123">
         <f>B22*100/B17</f>
         <v>8.310249307479225</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
       <c r="G22" s="76"/>
       <c r="H22" s="76"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="127"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="126"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="124" t="s">
         <v>307</v>
       </c>
-      <c r="B23" s="125">
+      <c r="B23" s="124">
         <v>58</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="123">
         <f>B23*100/B17</f>
         <v>5.3554939981532783</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="76"/>
       <c r="H23" s="76"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="127"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="126"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="B24" s="125">
+      <c r="B24" s="124">
         <v>56</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="123">
         <f>B24*100/B17</f>
         <v>5.1708217913204066</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
       <c r="G24" s="76"/>
       <c r="H24" s="76"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="127"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="126"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="124" t="s">
         <v>311</v>
       </c>
-      <c r="B25" s="125">
+      <c r="B25" s="124">
         <v>16</v>
       </c>
-      <c r="C25" s="124">
+      <c r="C25" s="123">
         <f>B25*100/B17</f>
         <v>1.4773776546629733</v>
       </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
       <c r="G25" s="76"/>
       <c r="H25" s="76"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="127"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="126"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="124" t="s">
         <v>312</v>
       </c>
-      <c r="B26" s="125">
+      <c r="B26" s="124">
         <v>12</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="123">
         <f>B26*100/B17</f>
         <v>1.10803324099723</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
       <c r="G26" s="76"/>
       <c r="H26" s="76"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="127"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="126"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="125">
+      <c r="B27" s="124">
         <v>3</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="123">
         <f>B27*100/B17</f>
         <v>0.2770083102493075</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
       <c r="G27" s="76"/>
       <c r="H27" s="76"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="127"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="126"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="130" t="s">
         <v>314</v>
       </c>
     </row>

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A22FC-66CF-4B8E-86C4-39D47F28D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24419F14-B836-4F70-A4F0-5B1263798644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33360" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -2235,6 +2235,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2294,12 +2300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6273,8 +6273,8 @@
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,16 +6289,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
@@ -6442,10 +6442,10 @@
         <v>159</v>
       </c>
       <c r="F13" s="53"/>
-      <c r="G13" s="134" t="s">
+      <c r="G13" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="135"/>
+      <c r="H13" s="137"/>
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6621,7 +6621,7 @@
       <c r="E23" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="139" t="s">
+      <c r="F23" s="141" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="86" t="s">
@@ -6640,7 +6640,7 @@
       <c r="E24" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="140"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="80" t="s">
         <v>190</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="E25" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="140"/>
+      <c r="F25" s="142"/>
       <c r="G25" s="80"/>
       <c r="H25" s="91"/>
       <c r="I25" s="29"/>
@@ -6676,7 +6676,7 @@
       <c r="E26" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="140"/>
+      <c r="F26" s="142"/>
       <c r="G26" s="80">
         <v>22</v>
       </c>
@@ -6695,7 +6695,7 @@
       <c r="E27" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="141"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="80" t="s">
         <v>135</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="E29" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="136" t="s">
+      <c r="F29" s="138" t="s">
         <v>113</v>
       </c>
       <c r="G29" s="73" t="s">
@@ -6754,7 +6754,7 @@
       <c r="E30" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="137"/>
+      <c r="F30" s="139"/>
       <c r="G30" s="73" t="s">
         <v>136</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="E31" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="137"/>
+      <c r="F31" s="139"/>
       <c r="G31" s="73">
         <v>324116</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="E32" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="F32" s="137"/>
+      <c r="F32" s="139"/>
       <c r="G32" s="73"/>
       <c r="H32" s="95"/>
       <c r="I32" s="29"/>
@@ -6811,7 +6811,7 @@
       <c r="E33" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="137"/>
+      <c r="F33" s="139"/>
       <c r="G33" s="73">
         <v>320505</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="E34" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="137"/>
+      <c r="F34" s="139"/>
       <c r="G34" s="73" t="s">
         <v>134</v>
       </c>
@@ -6851,7 +6851,7 @@
       <c r="E35" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="F35" s="137"/>
+      <c r="F35" s="139"/>
       <c r="G35" s="73" t="s">
         <v>138</v>
       </c>
@@ -6872,7 +6872,7 @@
       <c r="E36" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="137"/>
+      <c r="F36" s="139"/>
       <c r="G36" s="73"/>
       <c r="H36" s="96">
         <v>352609</v>
@@ -6891,7 +6891,7 @@
       <c r="E37" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="137"/>
+      <c r="F37" s="139"/>
       <c r="G37" s="73"/>
       <c r="H37" s="96" t="s">
         <v>187</v>
@@ -6910,7 +6910,7 @@
       <c r="E38" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="137"/>
+      <c r="F38" s="139"/>
       <c r="G38" s="73">
         <v>68.05</v>
       </c>
@@ -6943,7 +6943,7 @@
       <c r="E39" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="137"/>
+      <c r="F39" s="139"/>
       <c r="G39" s="73">
         <v>22.95</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="E40" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="137"/>
+      <c r="F40" s="139"/>
       <c r="G40" s="73">
         <v>23.3</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="E41" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="137"/>
+      <c r="F41" s="139"/>
       <c r="G41" s="73"/>
       <c r="H41" s="95"/>
       <c r="I41" s="108" t="s">
@@ -7032,7 +7032,7 @@
       <c r="E42" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="137"/>
+      <c r="F42" s="139"/>
       <c r="G42" s="73">
         <v>386</v>
       </c>
@@ -7050,7 +7050,7 @@
       <c r="E43" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="137"/>
+      <c r="F43" s="139"/>
       <c r="G43" s="73" t="s">
         <v>139</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="E44" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="137"/>
+      <c r="F44" s="139"/>
       <c r="G44" s="73">
         <v>8204255</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="E45" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="137"/>
+      <c r="F45" s="139"/>
       <c r="G45" s="73" t="s">
         <v>189</v>
       </c>
@@ -7103,7 +7103,7 @@
       <c r="E46" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="138"/>
+      <c r="F46" s="140"/>
       <c r="G46" s="73" t="s">
         <v>251</v>
       </c>
@@ -7121,7 +7121,7 @@
       <c r="E47" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="131" t="s">
+      <c r="F47" s="133" t="s">
         <v>124</v>
       </c>
       <c r="G47" s="60">
@@ -7138,7 +7138,7 @@
       <c r="E48" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="F48" s="131"/>
+      <c r="F48" s="133"/>
       <c r="G48" s="60">
         <v>324116</v>
       </c>
@@ -7153,7 +7153,7 @@
       <c r="E49" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="131"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="60" t="s">
         <v>140</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="E50" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="131"/>
+      <c r="F50" s="133"/>
       <c r="G50" s="60">
         <v>320505</v>
       </c>
@@ -7183,7 +7183,7 @@
       <c r="E51" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="F51" s="131"/>
+      <c r="F51" s="133"/>
       <c r="G51" s="60" t="s">
         <v>141</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="E52" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="F52" s="131"/>
+      <c r="F52" s="133"/>
       <c r="G52" s="60">
         <v>815</v>
       </c>
@@ -7213,7 +7213,7 @@
       <c r="E53" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="F53" s="131"/>
+      <c r="F53" s="133"/>
       <c r="G53" s="60" t="s">
         <v>225</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="E54" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="131"/>
+      <c r="F54" s="133"/>
       <c r="G54" s="60">
         <v>68.06</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="E55" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="F55" s="131"/>
+      <c r="F55" s="133"/>
       <c r="G55" s="60"/>
       <c r="H55" s="98"/>
       <c r="I55" s="70"/>
@@ -7262,7 +7262,7 @@
       <c r="E56" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="F56" s="132" t="s">
+      <c r="F56" s="134" t="s">
         <v>127</v>
       </c>
       <c r="G56" s="63" t="s">
@@ -7282,7 +7282,7 @@
       <c r="E57" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="132"/>
+      <c r="F57" s="134"/>
       <c r="G57" s="63"/>
       <c r="H57" s="99"/>
       <c r="I57" s="29"/>
@@ -7296,7 +7296,7 @@
       <c r="E58" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="132"/>
+      <c r="F58" s="134"/>
       <c r="G58" s="63"/>
       <c r="H58" s="99"/>
       <c r="I58" s="29"/>
@@ -7310,7 +7310,7 @@
       <c r="E59" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="132"/>
+      <c r="F59" s="134"/>
       <c r="G59" s="63"/>
       <c r="H59" s="99"/>
       <c r="I59" s="29"/>
@@ -7324,7 +7324,7 @@
       <c r="E60" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="F60" s="132"/>
+      <c r="F60" s="134"/>
       <c r="G60" s="63"/>
       <c r="H60" s="99"/>
       <c r="I60" s="29"/>
@@ -7338,7 +7338,7 @@
       <c r="E61" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="132"/>
+      <c r="F61" s="134"/>
       <c r="G61" s="64"/>
       <c r="H61" s="100"/>
       <c r="I61" s="29"/>
@@ -7352,7 +7352,7 @@
       <c r="E62" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="132"/>
+      <c r="F62" s="134"/>
       <c r="G62" s="65" t="s">
         <v>143</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="E63" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="F63" s="132"/>
+      <c r="F63" s="134"/>
       <c r="G63" s="65"/>
       <c r="H63" s="100"/>
       <c r="I63" s="29"/>
@@ -7382,7 +7382,7 @@
       <c r="E64" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="132"/>
+      <c r="F64" s="134"/>
       <c r="G64" s="65"/>
       <c r="H64" s="99"/>
       <c r="I64" s="29"/>
@@ -7466,7 +7466,7 @@
       <c r="B69" s="8"/>
       <c r="C69" s="28"/>
       <c r="D69" s="66"/>
-      <c r="E69" s="151" t="s">
+      <c r="E69" s="131" t="s">
         <v>253</v>
       </c>
       <c r="F69" s="68"/>
@@ -7486,7 +7486,7 @@
       <c r="B70" s="8"/>
       <c r="C70" s="28"/>
       <c r="D70" s="66"/>
-      <c r="E70" s="151" t="s">
+      <c r="E70" s="131" t="s">
         <v>257</v>
       </c>
       <c r="F70" s="68"/>
@@ -7504,7 +7504,7 @@
       <c r="B71" s="8"/>
       <c r="C71" s="28"/>
       <c r="D71" s="66"/>
-      <c r="E71" s="151" t="s">
+      <c r="E71" s="131" t="s">
         <v>261</v>
       </c>
       <c r="F71" s="68"/>
@@ -7518,7 +7518,7 @@
       <c r="B72" s="8"/>
       <c r="C72" s="28"/>
       <c r="D72" s="66"/>
-      <c r="E72" s="151" t="s">
+      <c r="E72" s="131" t="s">
         <v>263</v>
       </c>
       <c r="F72" s="68"/>
@@ -7532,7 +7532,7 @@
       <c r="B73" s="8"/>
       <c r="C73" s="28"/>
       <c r="D73" s="66"/>
-      <c r="E73" s="151" t="s">
+      <c r="E73" s="131" t="s">
         <v>264</v>
       </c>
       <c r="F73" s="68"/>
@@ -7546,7 +7546,7 @@
       <c r="B74" s="8"/>
       <c r="C74" s="28"/>
       <c r="D74" s="66"/>
-      <c r="E74" s="151" t="s">
+      <c r="E74" s="131" t="s">
         <v>265</v>
       </c>
       <c r="F74" s="68"/>
@@ -7560,7 +7560,7 @@
       <c r="B75" s="31"/>
       <c r="C75" s="30"/>
       <c r="D75" s="102"/>
-      <c r="E75" s="152" t="s">
+      <c r="E75" s="132" t="s">
         <v>262</v>
       </c>
       <c r="F75" s="103"/>
@@ -7603,19 +7603,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -8097,28 +8097,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -8415,10 +8415,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="143"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="3">
         <f>C10+C14+C19+C24</f>
         <v>15</v>
@@ -8591,20 +8591,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -8818,31 +8818,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -9446,10 +9446,10 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="147"/>
+      <c r="B43" s="149"/>
       <c r="C43" s="14">
         <f>C30+C33+C38+C40+C42</f>
         <v>4435</v>
@@ -9646,10 +9646,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="147"/>
+      <c r="B68" s="149"/>
       <c r="C68" s="40">
         <v>4435</v>
       </c>
@@ -9692,30 +9692,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9824,10 +9824,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="143"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="3">
         <f>SUM(C6:C11)</f>
         <v>341</v>
@@ -9908,10 +9908,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="146" t="s">
+      <c r="A18" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="147"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="3">
         <f>SUM(C13:C17)</f>
         <v>5</v>
@@ -9964,10 +9964,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="147"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="3">
         <f>SUM(C19:C21)</f>
         <v>3</v>
@@ -9992,10 +9992,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="147"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="3">
         <f>10</f>
         <v>10</v>
@@ -10047,10 +10047,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="147"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="3">
         <f>SUM(C25:C27)</f>
         <v>670</v>
@@ -10075,10 +10075,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="147"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="3">
         <f>SUM(C29)</f>
         <v>3190</v>
@@ -10103,10 +10103,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="147"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="3">
         <f>SUM(C31)</f>
         <v>7</v>
@@ -10145,10 +10145,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="3">
         <f>SUM(C33:C34)</f>
         <v>2</v>
@@ -10159,10 +10159,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="147"/>
+      <c r="B36" s="149"/>
       <c r="C36" s="1">
         <f>C12+C18+C22+C28+C30+C32+C35</f>
         <v>4218</v>
@@ -10338,10 +10338,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="146" t="s">
+      <c r="A54" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="147"/>
+      <c r="B54" s="149"/>
       <c r="C54">
         <v>100</v>
       </c>
@@ -10351,6 +10351,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
@@ -10358,12 +10364,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -10397,128 +10397,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="150" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="150" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150" t="s">
+      <c r="C6" s="152"/>
+      <c r="D6" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150" t="s">
+      <c r="E6" s="152"/>
+      <c r="F6" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150" t="s">
+      <c r="G6" s="152"/>
+      <c r="H6" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150" t="s">
+      <c r="I6" s="152"/>
+      <c r="J6" s="152" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150" t="s">
+      <c r="K6" s="152"/>
+      <c r="L6" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150" t="s">
+      <c r="M6" s="152"/>
+      <c r="N6" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150" t="s">
+      <c r="O6" s="152"/>
+      <c r="P6" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="150"/>
+      <c r="Q6" s="152"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
+      <c r="A7" s="151"/>
       <c r="B7" s="2" t="s">
         <v>287</v>
       </c>
@@ -10889,70 +10889,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="150" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24419F14-B836-4F70-A4F0-5B1263798644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7271D4-38B5-4BCE-AB17-B996F12C81FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33360" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -5689,6 +5689,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96712711-C6EB-41CE-A33F-022D3A730497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" r:link="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="133350" y="180975"/>
+          <a:ext cx="2657475" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6273,8 +6334,8 @@
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7592,7 +7653,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8084,8 +8145,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8804,7 +8865,7 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -9680,7 +9741,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7271D4-38B5-4BCE-AB17-B996F12C81FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0836F7A3-DFB6-40CC-8664-E71D954C58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -8145,7 +8145,7 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -8865,7 +8865,7 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -9741,7 +9741,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -10412,12 +10412,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
@@ -10425,6 +10419,12 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -10936,8 +10936,8 @@
   </sheetPr>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
+++ b/Documents/Формы отчетов/Отчеты_ отправление ИДС ЖД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\Формы отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0836F7A3-DFB6-40CC-8664-E71D954C58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722638E7-99D0-43D8-8719-F1DDFEF7F3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основной " sheetId="7" r:id="rId1"/>
@@ -6334,8 +6334,8 @@
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10412,6 +10412,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
@@ -10419,12 +10425,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
@@ -10936,8 +10936,8 @@
   </sheetPr>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
